--- a/CA_PROJECT_1/waarheidstabellen_de_morgan.xlsx
+++ b/CA_PROJECT_1/waarheidstabellen_de_morgan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppetre\Dropbox\Torben\Universiteit\2024-2025\Computersystem-en architecturen\Opdrachten\Torben Petre - CA_PROJECT_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppetre\Dropbox\Torben\Universiteit\2024-2025\Computersystem-en architecturen\Opdrachten\Verslagen\CA_PROJECT_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C75614-95FC-4F4B-8231-A8E4701236FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE500CD7-5BAF-4298-A7FB-E1D3B8CB6D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{086492CE-7610-4147-94DA-333B430CBB20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{086492CE-7610-4147-94DA-333B430CBB20}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -44,14 +44,26 @@
     <t>B</t>
   </si>
   <si>
-    <t>R</t>
+    <t>A + B</t>
+  </si>
+  <si>
+    <t>A · B</t>
+  </si>
+  <si>
+    <t>Ᾱ</t>
+  </si>
+  <si>
+    <t>B̅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +79,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -84,13 +121,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -112,16 +239,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>17221</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3850</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>169585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -136,16 +263,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="8420" t="34662"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1912620" y="83820"/>
-          <a:ext cx="543001" cy="285790"/>
+          <a:off x="2066925" y="182880"/>
+          <a:ext cx="531571" cy="179110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -156,16 +282,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409632</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>45752</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57207</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>169577</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -188,8 +314,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="182880"/>
-          <a:ext cx="409632" cy="228632"/>
+          <a:off x="6343650" y="123825"/>
+          <a:ext cx="407727" cy="238157"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -200,16 +326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234316</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495369</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>181000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53341</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -224,16 +350,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="10768" t="-8421" r="4628" b="-22091"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="1280160"/>
-          <a:ext cx="495369" cy="181000"/>
+          <a:off x="2063116" y="1253490"/>
+          <a:ext cx="422910" cy="251460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -244,16 +369,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466790</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>45752</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95315</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -276,8 +401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="1280160"/>
-          <a:ext cx="466790" cy="228632"/>
+          <a:off x="6339840" y="1243965"/>
+          <a:ext cx="461075" cy="241967"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,213 +711,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6193D43A-C0B5-4871-BEDE-16E9C5085618}">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
